--- a/Literature_legacy_v0.1.xlsx
+++ b/Literature_legacy_v0.1.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ben/DEMENTpy/microbiome-drought-legacy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222C81F2-1C1C-3440-A8B2-984C32FDDBE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D44110-9194-3542-8995-E9DE6ABB128B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="20640" activeTab="3" xr2:uid="{6FE65769-796D-3A4F-9A3F-40C9EB0137CB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="20640" activeTab="4" xr2:uid="{6FE65769-796D-3A4F-9A3F-40C9EB0137CB}"/>
   </bookViews>
   <sheets>
     <sheet name="systems" sheetId="4" r:id="rId1"/>
-    <sheet name="vegetation" sheetId="1" r:id="rId2"/>
-    <sheet name="microbiome" sheetId="2" r:id="rId3"/>
-    <sheet name="miscellaneous" sheetId="3" r:id="rId4"/>
-    <sheet name="drought" sheetId="5" r:id="rId5"/>
+    <sheet name="microbiome" sheetId="2" r:id="rId2"/>
+    <sheet name="vegetation" sheetId="1" r:id="rId3"/>
+    <sheet name="soil" sheetId="6" r:id="rId4"/>
+    <sheet name="miscellaneous" sheetId="3" r:id="rId5"/>
+    <sheet name="drought" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="82">
   <si>
     <t>Herzschuh</t>
   </si>
@@ -194,13 +195,100 @@
   </si>
   <si>
     <t>https://www.nature.com/articles/s41559-019-0952-9</t>
+  </si>
+  <si>
+    <t>Global ecosystem thresholds driven by aridity</t>
+  </si>
+  <si>
+    <t>https://science.sciencemag.org/content/367/6479/787</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Berdugo et al.</t>
+  </si>
+  <si>
+    <t>P. Catalina Chaparro-Pedraza</t>
+  </si>
+  <si>
+    <t>Ecological changes with minor effect initiate evolution to delayed regime shifts</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41559-020-1110-0</t>
+  </si>
+  <si>
+    <t>Csonka</t>
+  </si>
+  <si>
+    <t>Physiological and genetic responses of bacteria to osmotic stress</t>
+  </si>
+  <si>
+    <t>Microbiological Reviews</t>
+  </si>
+  <si>
+    <t>https://mmbr.asm.org/content/53/1/121.short</t>
+  </si>
+  <si>
+    <t>Allison &amp; Goulden</t>
+  </si>
+  <si>
+    <t>Soil Biology and Biochemistry</t>
+  </si>
+  <si>
+    <t>Legacy effects of contrasting organic grain cropping systems on soil health indicators, soil invertebrates, weeds, and crop yield</t>
+  </si>
+  <si>
+    <t>Agricultural systems</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.agsy.2019.102719</t>
+  </si>
+  <si>
+    <t>Jernigan et al.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41598-018-19912-y</t>
+  </si>
+  <si>
+    <t>Scientific Reports</t>
+  </si>
+  <si>
+    <t>Warming deferentially altered multidimensional soil legacy induced by past land use history</t>
+  </si>
+  <si>
+    <t>Dong et al.</t>
+  </si>
+  <si>
+    <t>Birch</t>
+  </si>
+  <si>
+    <t>The effect of soil drying on humus decomposition and nitrogen availability</t>
+  </si>
+  <si>
+    <t>Plant and Soil</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/BF01343734</t>
+  </si>
+  <si>
+    <t>https://www.fs.fed.us/research/publications/gtr/gtr_wo98/gtr_wo98_chapter8.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Managing Effects of Drought in the Midwest and Northeast United States </t>
+  </si>
+  <si>
+    <t>Effects of drought on forests and rangelands in the United States: translating science into management responses</t>
+  </si>
+  <si>
+    <t>Asbjornsen et al.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -242,6 +330,12 @@
       <name val="Palatino Linotype"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF505050"/>
+      <name val="Palatino Linotype"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -276,7 +370,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -312,6 +406,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -661,11 +759,200 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EADCE3-3763-1F47-8556-E4ED6BD8D785}">
+  <dimension ref="A1:F39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="6"/>
+    <col min="2" max="2" width="10.83203125" style="8"/>
+    <col min="3" max="3" width="17" style="6" customWidth="1"/>
+    <col min="4" max="4" width="80.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="29.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="44.33203125" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8">
+        <v>2020</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="8">
+        <v>2019</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="8">
+        <v>2019</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8">
+        <v>2019</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="8">
+        <v>2017</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="8">
+        <v>2017</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="8">
+        <v>1989</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8">
+        <v>1958</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F19" r:id="rId1" xr:uid="{A19AF357-2242-5E43-ABF9-81F6647BF7A7}"/>
+    <hyperlink ref="F24" r:id="rId2" xr:uid="{D63D35DC-9FBB-9440-851B-8F0C7565A40C}"/>
+    <hyperlink ref="F18" r:id="rId3" xr:uid="{28C7DA05-7360-134C-8C78-61C6166A8775}"/>
+    <hyperlink ref="F15" r:id="rId4" xr:uid="{D6CCDDF3-9A17-4841-86A3-F61948ED6D2F}"/>
+    <hyperlink ref="F20" r:id="rId5" xr:uid="{DEE48636-84BA-9F40-A691-155F45F824E3}"/>
+    <hyperlink ref="F34" r:id="rId6" xr:uid="{CBBF1CC0-2733-6640-B235-B783EC62CE1C}"/>
+    <hyperlink ref="F39" r:id="rId7" xr:uid="{7F2B2595-DE73-EE46-9F90-2ED88811A71D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4699A5-D920-F84E-B909-A09CF3175EEC}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.3"/>
@@ -822,23 +1109,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EADCE3-3763-1F47-8556-E4ED6BD8D785}">
-  <dimension ref="A1:F24"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D3DF9A-FE38-4248-B026-BDF7B2C9A111}">
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="6"/>
-    <col min="2" max="2" width="10.83203125" style="8"/>
-    <col min="3" max="3" width="17" style="6" customWidth="1"/>
-    <col min="4" max="4" width="80.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="23.1640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="44.33203125" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="6"/>
+    <col min="1" max="2" width="10.83203125" style="6"/>
+    <col min="3" max="3" width="18.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="91.83203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -861,111 +1146,55 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="6">
         <v>2020</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8">
-        <v>2019</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="8">
-        <v>2019</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="8">
-        <v>2019</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="8">
-        <v>2017</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>17</v>
+      <c r="C11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="6">
+        <v>2018</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F20" r:id="rId1" xr:uid="{A19AF357-2242-5E43-ABF9-81F6647BF7A7}"/>
-    <hyperlink ref="F24" r:id="rId2" xr:uid="{D63D35DC-9FBB-9440-851B-8F0C7565A40C}"/>
-    <hyperlink ref="F19" r:id="rId3" xr:uid="{28C7DA05-7360-134C-8C78-61C6166A8775}"/>
-    <hyperlink ref="F15" r:id="rId4" xr:uid="{D6CCDDF3-9A17-4841-86A3-F61948ED6D2F}"/>
-    <hyperlink ref="F18" r:id="rId5" xr:uid="{DEE48636-84BA-9F40-A691-155F45F824E3}"/>
+    <hyperlink ref="F11" r:id="rId1" tooltip="Persistent link using digital object identifier" xr:uid="{512E17A7-8A6C-254F-A1DD-1A4EFB8B7453}"/>
+    <hyperlink ref="F16" r:id="rId2" xr:uid="{0FFC326F-7C44-F544-BB84-9EEA3A0A52EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B271CBF5-38CD-8F44-A9B2-C27FAA7EE71A}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.3"/>
@@ -998,39 +1227,126 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="8">
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="8">
         <v>1992</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F19" s="9" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F14" r:id="rId1" xr:uid="{06F40838-571E-054D-ABF8-83BD9B8D30F3}"/>
+    <hyperlink ref="F19" r:id="rId1" xr:uid="{06F40838-571E-054D-ABF8-83BD9B8D30F3}"/>
+    <hyperlink ref="F9" r:id="rId2" xr:uid="{5111ED02-2557-A54F-8A4C-FEA698B8D1F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C42503F5-B09D-A34F-A7DE-E00F410A0C21}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="6"/>
+    <col min="2" max="2" width="10.83203125" style="8"/>
+    <col min="3" max="3" width="18.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="80.83203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="31.5" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="8">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="8">
+        <v>2019</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F8" r:id="rId1" xr:uid="{4440D78E-4F2F-1246-B2EA-0743E2FB1C43}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Literature_legacy_v0.1.xlsx
+++ b/Literature_legacy_v0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ben/DEMENTpy/microbiome-drought-legacy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D44110-9194-3542-8995-E9DE6ABB128B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED849DB6-68A6-DC49-8131-6DD3E30CBD33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="20640" activeTab="4" xr2:uid="{6FE65769-796D-3A4F-9A3F-40C9EB0137CB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="20640" activeTab="1" xr2:uid="{6FE65769-796D-3A4F-9A3F-40C9EB0137CB}"/>
   </bookViews>
   <sheets>
     <sheet name="systems" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="86">
   <si>
     <t>Herzschuh</t>
   </si>
@@ -282,6 +282,18 @@
   </si>
   <si>
     <t>Asbjornsen et al.</t>
+  </si>
+  <si>
+    <t>Warren</t>
+  </si>
+  <si>
+    <t>Response of osmolytes in soil to drying and rewetting</t>
+  </si>
+  <si>
+    <t>Soil Biology and Biochmistry</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.soilbio.2013.12.008</t>
   </si>
 </sst>
 </file>
@@ -760,10 +772,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EADCE3-3763-1F47-8556-E4ED6BD8D785}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.3"/>
@@ -895,41 +907,66 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B32" s="8">
+        <v>2014</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="10"/>
+      <c r="D33" s="14"/>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="8">
         <v>1989</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D35" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E35" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F35" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8">
         <v>1958</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D40" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E40" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F40" s="7" t="s">
         <v>77</v>
       </c>
     </row>
@@ -940,8 +977,9 @@
     <hyperlink ref="F18" r:id="rId3" xr:uid="{28C7DA05-7360-134C-8C78-61C6166A8775}"/>
     <hyperlink ref="F15" r:id="rId4" xr:uid="{D6CCDDF3-9A17-4841-86A3-F61948ED6D2F}"/>
     <hyperlink ref="F20" r:id="rId5" xr:uid="{DEE48636-84BA-9F40-A691-155F45F824E3}"/>
-    <hyperlink ref="F34" r:id="rId6" xr:uid="{CBBF1CC0-2733-6640-B235-B783EC62CE1C}"/>
-    <hyperlink ref="F39" r:id="rId7" xr:uid="{7F2B2595-DE73-EE46-9F90-2ED88811A71D}"/>
+    <hyperlink ref="F35" r:id="rId6" xr:uid="{CBBF1CC0-2733-6640-B235-B783EC62CE1C}"/>
+    <hyperlink ref="F40" r:id="rId7" xr:uid="{7F2B2595-DE73-EE46-9F90-2ED88811A71D}"/>
+    <hyperlink ref="F32" r:id="rId8" xr:uid="{20EDCC55-633A-8F4A-9FC1-28162EAC1BC3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1193,7 +1231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B271CBF5-38CD-8F44-A9B2-C27FAA7EE71A}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>

--- a/Literature_legacy_v0.1.xlsx
+++ b/Literature_legacy_v0.1.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ben/DEMENTpy/microbiome-drought-legacy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED849DB6-68A6-DC49-8131-6DD3E30CBD33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CEF4F9-ACDA-8245-B3DA-663F00BC0FE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="20640" activeTab="1" xr2:uid="{6FE65769-796D-3A4F-9A3F-40C9EB0137CB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="20580" activeTab="1" xr2:uid="{6FE65769-796D-3A4F-9A3F-40C9EB0137CB}"/>
   </bookViews>
   <sheets>
-    <sheet name="systems" sheetId="4" r:id="rId1"/>
-    <sheet name="microbiome" sheetId="2" r:id="rId2"/>
-    <sheet name="vegetation" sheetId="1" r:id="rId3"/>
-    <sheet name="soil" sheetId="6" r:id="rId4"/>
-    <sheet name="miscellaneous" sheetId="3" r:id="rId5"/>
+    <sheet name="microbiome" sheetId="2" r:id="rId1"/>
+    <sheet name="vegetation" sheetId="1" r:id="rId2"/>
+    <sheet name="soil" sheetId="6" r:id="rId3"/>
+    <sheet name="miscellaneous" sheetId="3" r:id="rId4"/>
+    <sheet name="systems" sheetId="4" r:id="rId5"/>
     <sheet name="drought" sheetId="5" r:id="rId6"/>
+    <sheet name="aggregated" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="122">
   <si>
     <t>Herzschuh</t>
   </si>
@@ -294,6 +295,114 @@
   </si>
   <si>
     <t>https://doi.org/10.1016/j.soilbio.2013.12.008</t>
+  </si>
+  <si>
+    <t>Waylen et al.</t>
+  </si>
+  <si>
+    <t>How does legacy create sticking points for environmental management? Insights from challenges to implementation of the ecosystem approach</t>
+  </si>
+  <si>
+    <t>Ecology and Society</t>
+  </si>
+  <si>
+    <t>https://www.ecologyandsociety.org/vol20/iss2/art21/</t>
+  </si>
+  <si>
+    <t>Taxon-specific microbial growth and mortality patterns reveal distinct temporal population responses to rewetting in a California grassland soil</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41396-020-0617-3</t>
+  </si>
+  <si>
+    <t>Blazewicz et al.</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>journal</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>Bittleston et al.</t>
+  </si>
+  <si>
+    <t>Context-dependent dynamics lead to the assembly of functionally distinct microbial communities</t>
+  </si>
+  <si>
+    <t>Nature Communications</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41467-020-15169-0</t>
+  </si>
+  <si>
+    <t>Growth and death of bacteria and fungi underlie rainfall‐induced carbon dioxide pulses from seasonally dried soil</t>
+  </si>
+  <si>
+    <t>Ecology</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1890/13-1031.1</t>
+  </si>
+  <si>
+    <t>Steven J. Blazewicz</t>
+  </si>
+  <si>
+    <t>Fukami</t>
+  </si>
+  <si>
+    <t>Historical contingency in community assembly: integrating niches, species pools, and priority effects</t>
+  </si>
+  <si>
+    <t>Annu. Rev. Ecol. Evol. Syst</t>
+  </si>
+  <si>
+    <t>https://www.annualreviews.org/doi/abs/10.1146/annurev-ecolsys-110411-160340</t>
+  </si>
+  <si>
+    <t>https://www.usda.gov/media/press-releases/2016/11/18/new-aerial-survey-identifies-more-100-million-dead-trees-california</t>
+  </si>
+  <si>
+    <t>New Aerial Survey Identifies More Than 100 Million Dead Trees in California</t>
+  </si>
+  <si>
+    <t>Warner and Chesson</t>
+  </si>
+  <si>
+    <t>Coexistence Mediated by Recruitment Fluctuations: A Field Guide to the Storage Effect</t>
+  </si>
+  <si>
+    <t>American Naturist</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1086/284379</t>
+  </si>
+  <si>
+    <t>Legacy effects of drought on plant–soil feedbacks and plant–plant interactions</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/nph.14661</t>
+  </si>
+  <si>
+    <t>New Phytologist</t>
+  </si>
+  <si>
+    <t>Kaisermann et al.</t>
   </si>
 </sst>
 </file>
@@ -382,7 +491,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -422,6 +531,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -736,46 +851,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77268A21-6CF0-1F4B-BA92-8ED3FAC65EF6}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EADCE3-3763-1F47-8556-E4ED6BD8D785}">
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EADCE3-3763-1F47-8556-E4ED6BD8D785}">
-  <dimension ref="A1:F40"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.3"/>
@@ -783,7 +863,7 @@
     <col min="1" max="1" width="10.83203125" style="6"/>
     <col min="2" max="2" width="10.83203125" style="8"/>
     <col min="3" max="3" width="17" style="6" customWidth="1"/>
-    <col min="4" max="4" width="80.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="97.83203125" style="6" customWidth="1"/>
     <col min="5" max="5" width="29.5" style="6" customWidth="1"/>
     <col min="6" max="6" width="44.33203125" style="6" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="6"/>
@@ -809,6 +889,40 @@
         <v>9</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="8">
+        <v>2020</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="8">
+        <v>2020</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="8">
@@ -834,7 +948,7 @@
       <c r="C18" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="6" t="s">
@@ -879,118 +993,148 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="8">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="8">
         <v>2017</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E23" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F23" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="8">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="8">
         <v>2017</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E27" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
-        <v>21</v>
-      </c>
       <c r="B32" s="8">
         <v>2014</v>
       </c>
       <c r="C32" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="8">
+        <v>2014</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D33" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E33" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F33" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="10"/>
-      <c r="D33" s="14"/>
-      <c r="F33" s="7"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="10"/>
+      <c r="D34" s="14"/>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="10"/>
+      <c r="D35" s="14"/>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="D36" s="14"/>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B38" s="8">
         <v>1989</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C38" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D38" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E38" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F38" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8">
         <v>1958</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C43" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D43" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E43" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F43" s="7" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F19" r:id="rId1" xr:uid="{A19AF357-2242-5E43-ABF9-81F6647BF7A7}"/>
-    <hyperlink ref="F24" r:id="rId2" xr:uid="{D63D35DC-9FBB-9440-851B-8F0C7565A40C}"/>
+    <hyperlink ref="F23" r:id="rId2" xr:uid="{D63D35DC-9FBB-9440-851B-8F0C7565A40C}"/>
     <hyperlink ref="F18" r:id="rId3" xr:uid="{28C7DA05-7360-134C-8C78-61C6166A8775}"/>
     <hyperlink ref="F15" r:id="rId4" xr:uid="{D6CCDDF3-9A17-4841-86A3-F61948ED6D2F}"/>
     <hyperlink ref="F20" r:id="rId5" xr:uid="{DEE48636-84BA-9F40-A691-155F45F824E3}"/>
-    <hyperlink ref="F35" r:id="rId6" xr:uid="{CBBF1CC0-2733-6640-B235-B783EC62CE1C}"/>
-    <hyperlink ref="F40" r:id="rId7" xr:uid="{7F2B2595-DE73-EE46-9F90-2ED88811A71D}"/>
-    <hyperlink ref="F32" r:id="rId8" xr:uid="{20EDCC55-633A-8F4A-9FC1-28162EAC1BC3}"/>
+    <hyperlink ref="F38" r:id="rId6" xr:uid="{CBBF1CC0-2733-6640-B235-B783EC62CE1C}"/>
+    <hyperlink ref="F43" r:id="rId7" xr:uid="{7F2B2595-DE73-EE46-9F90-2ED88811A71D}"/>
+    <hyperlink ref="F33" r:id="rId8" xr:uid="{20EDCC55-633A-8F4A-9FC1-28162EAC1BC3}"/>
+    <hyperlink ref="F14" r:id="rId9" xr:uid="{180C593F-C5D3-3947-BEED-E2AD00D054C8}"/>
+    <hyperlink ref="F13" r:id="rId10" xr:uid="{8F9941BA-708A-9645-B772-312975800A0A}"/>
+    <hyperlink ref="F32" r:id="rId11" xr:uid="{6425A07B-9F5A-E740-8690-AD5FBAC6C5AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4699A5-D920-F84E-B909-A09CF3175EEC}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.3"/>
@@ -1077,77 +1221,98 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="8">
+        <v>2017</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F20" s="9"/>
+    </row>
+    <row r="22" spans="1:8" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B22" s="1">
         <v>2016</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D22" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F22" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="8">
         <v>2015</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1">
+    <row r="26" spans="1:8" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1">
         <v>2015</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F26" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F15" r:id="rId1" xr:uid="{6AF9D39B-7997-7F47-8FEF-A082A4B452C0}"/>
-    <hyperlink ref="F24" r:id="rId2" xr:uid="{32B22C4E-D6CB-9B44-8DC9-8FC08AB09C07}"/>
-    <hyperlink ref="F20" r:id="rId3" xr:uid="{3F83B4CC-9272-744A-9869-0AA8B890C478}"/>
+    <hyperlink ref="F25" r:id="rId2" xr:uid="{32B22C4E-D6CB-9B44-8DC9-8FC08AB09C07}"/>
+    <hyperlink ref="F22" r:id="rId3" xr:uid="{3F83B4CC-9272-744A-9869-0AA8B890C478}"/>
     <hyperlink ref="F16" r:id="rId4" xr:uid="{5F3BCD56-B283-1C42-8D7D-48FBA81796DF}"/>
-    <hyperlink ref="F25" r:id="rId5" xr:uid="{427BCC63-2296-B147-9E32-9CFD098D974F}"/>
+    <hyperlink ref="F26" r:id="rId5" xr:uid="{427BCC63-2296-B147-9E32-9CFD098D974F}"/>
     <hyperlink ref="F12" r:id="rId6" xr:uid="{B36A2C7A-5F05-8A47-B236-F6E5F98CBEBF}"/>
+    <hyperlink ref="F19" r:id="rId7" xr:uid="{A9A559E5-CFFA-CB43-A39F-838A226AAD38}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D3DF9A-FE38-4248-B026-BDF7B2C9A111}">
   <dimension ref="A1:F16"/>
   <sheetViews>
@@ -1227,19 +1392,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B271CBF5-38CD-8F44-A9B2-C27FAA7EE71A}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="6"/>
     <col min="2" max="2" width="10.83203125" style="8"/>
-    <col min="3" max="3" width="14.1640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="107.5" style="6" customWidth="1"/>
     <col min="5" max="5" width="21.5" style="6" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="6"/>
@@ -1283,7 +1448,25 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="19"/>
+      <c r="B14" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19" s="8">
         <v>1992</v>
       </c>
@@ -1298,12 +1481,111 @@
       </c>
       <c r="F19" s="9" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="19"/>
+      <c r="B22" s="1">
+        <v>1985</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F19" r:id="rId1" xr:uid="{06F40838-571E-054D-ABF8-83BD9B8D30F3}"/>
     <hyperlink ref="F9" r:id="rId2" xr:uid="{5111ED02-2557-A54F-8A4C-FEA698B8D1F2}"/>
+    <hyperlink ref="F14" r:id="rId3" xr:uid="{2A2DEF89-DC8F-7847-8F27-ACF04197CD92}"/>
+    <hyperlink ref="F22" r:id="rId4" xr:uid="{0CEDC173-1BAB-EA41-8652-B9693AF6C2E0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77268A21-6CF0-1F4B-BA92-8ED3FAC65EF6}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="30.5" customWidth="1"/>
+    <col min="4" max="4" width="71" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="17" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8">
+        <v>2020</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" s="6" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="8">
+        <v>2015</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F18" r:id="rId1" xr:uid="{8BD432EC-89E8-6743-9DCE-79A0D8D1EA50}"/>
+    <hyperlink ref="F13" r:id="rId2" xr:uid="{31C9B2EE-E243-094E-A9DC-885B83D14E43}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1311,10 +1593,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C42503F5-B09D-A34F-A7DE-E00F410A0C21}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.3"/>
@@ -1347,43 +1629,239 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="8">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="8">
         <v>2020</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F12" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="8">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="8">
         <v>2019</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F20" s="6" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="8">
+        <v>2016</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1" xr:uid="{4440D78E-4F2F-1246-B2EA-0743E2FB1C43}"/>
+    <hyperlink ref="F12" r:id="rId1" xr:uid="{4440D78E-4F2F-1246-B2EA-0743E2FB1C43}"/>
+    <hyperlink ref="F24" r:id="rId2" xr:uid="{B7B5E401-AFEA-7642-921C-D77D27A66223}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5410F98C-384C-CA4F-84DF-8569A0BCE45F}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="78.5" customWidth="1"/>
+    <col min="5" max="5" width="33.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="6" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+      <c r="B7" s="8">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="6" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" s="6" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="6" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" s="6" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+      <c r="B13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" s="6" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+      <c r="B14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" s="6" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="6" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" s="6" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" s="6" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+      <c r="B19" s="8">
+        <v>2015</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F10" r:id="rId1" xr:uid="{7A9DD4CE-1FC6-574E-A54D-F48F4E58D1C7}"/>
+    <hyperlink ref="F19" r:id="rId2" xr:uid="{A3C3AF43-3692-DF42-BB8B-4C323B99590D}"/>
+    <hyperlink ref="F16" r:id="rId3" xr:uid="{A7C8C976-057E-E94C-9EC4-22ED4597EB15}"/>
+    <hyperlink ref="F11" r:id="rId4" xr:uid="{F63BA73C-3E7F-5E46-940C-56F566FD060E}"/>
+    <hyperlink ref="F20" r:id="rId5" xr:uid="{E322B871-3B1F-D548-A796-1AD22641D6CE}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{43421694-3E9A-2E46-BC42-95C4DC3B474E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
